--- a/minta.xlsx
+++ b/minta.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">mas@vhol.lan</t>
   </si>
   <si>
-    <t xml:space="preserve">Alap Géza</t>
+    <t xml:space="preserve">Alap Géző</t>
   </si>
   <si>
     <t xml:space="preserve">har@vhol.lan</t>
@@ -52,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,6 +74,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,11 +148,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.67"/>
   </cols>
   <sheetData>
